--- a/inventory list bharti plastic.xlsx
+++ b/inventory list bharti plastic.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIKHIL\PycharmProjects\Nikhil\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="25365" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4 (2)" sheetId="5" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="110">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -433,12 +438,15 @@
       <t>प्रिंटेड</t>
     </r>
   </si>
+  <si>
+    <t>Sub Category</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -724,6 +732,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1049,29 +1065,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="38.1640625" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="8" max="8" width="44" customWidth="1"/>
-    <col min="9" max="9" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="38.125" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
+    <col min="8" max="9" width="44" customWidth="1"/>
+    <col min="10" max="10" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1097,10 +1113,13 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1125,11 +1144,11 @@
       <c r="H2" t="s">
         <v>68</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1154,11 +1173,11 @@
       <c r="H3" t="s">
         <v>69</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1183,11 +1202,11 @@
       <c r="H4" t="s">
         <v>70</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1212,11 +1231,11 @@
       <c r="H5" t="s">
         <v>71</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1241,11 +1260,11 @@
       <c r="H6" t="s">
         <v>72</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1270,11 +1289,11 @@
       <c r="H7" t="s">
         <v>73</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1299,11 +1318,11 @@
       <c r="H8" t="s">
         <v>74</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1328,11 +1347,11 @@
       <c r="H9" t="s">
         <v>75</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1357,11 +1376,11 @@
       <c r="H10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1386,11 +1405,11 @@
       <c r="H11" t="s">
         <v>23</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1415,11 +1434,11 @@
       <c r="H12" t="s">
         <v>24</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1444,11 +1463,11 @@
       <c r="H13" t="s">
         <v>25</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1473,11 +1492,11 @@
       <c r="H14" t="s">
         <v>26</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1502,11 +1521,11 @@
       <c r="H15" t="s">
         <v>28</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1531,11 +1550,11 @@
       <c r="H16" t="s">
         <v>29</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1561,7 +1580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1587,7 +1606,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1613,7 +1632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1639,7 +1658,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1665,7 +1684,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1690,11 +1709,11 @@
       <c r="H22" t="s">
         <v>37</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1719,11 +1738,11 @@
       <c r="H23" t="s">
         <v>39</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1748,11 +1767,11 @@
       <c r="H24" t="s">
         <v>41</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1777,11 +1796,11 @@
       <c r="H25" t="s">
         <v>42</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1806,11 +1825,11 @@
       <c r="H26" t="s">
         <v>44</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1835,11 +1854,11 @@
       <c r="H27" t="s">
         <v>46</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1864,11 +1883,11 @@
       <c r="H28" t="s">
         <v>48</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1890,11 +1909,11 @@
       <c r="H29" t="s">
         <v>49</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>30</v>
       </c>
@@ -1916,11 +1935,11 @@
       <c r="H30" t="s">
         <v>50</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>31</v>
       </c>
@@ -1945,11 +1964,11 @@
       <c r="H31" t="s">
         <v>51</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>32</v>
       </c>
@@ -1974,11 +1993,11 @@
       <c r="H32" t="s">
         <v>53</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>33</v>
       </c>
@@ -2003,14 +2022,14 @@
       <c r="H33" t="s">
         <v>55</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="5:5" ht="19">
+    <row r="75" spans="5:5">
       <c r="E75" s="2"/>
     </row>
-    <row r="112" spans="5:5" ht="19">
+    <row r="112" spans="5:5">
       <c r="E112" s="2"/>
     </row>
   </sheetData>
